--- a/FileImp.xlsx
+++ b/FileImp.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Колір</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>жовтий</t>
+  </si>
+  <si>
+    <t>GoodModel</t>
+  </si>
+  <si>
+    <t>червоний</t>
+  </si>
+  <si>
+    <t>Intel Core I3</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,6 +426,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
